--- a/Paper Rebuttal/Adjustments_12_2019/Overlaps/angle_distance_table_center.xlsx
+++ b/Paper Rebuttal/Adjustments_12_2019/Overlaps/angle_distance_table_center.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t>Animal</t>
   </si>
@@ -38,6 +38,9 @@
   <si>
     <t>Number_events</t>
   </si>
+  <si>
+    <t>Theta_deg</t>
+  </si>
 </sst>
 </file>
 
@@ -57,7 +60,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -69,16 +72,20 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -94,7 +101,7 @@
     <col min="1" max="1" width="7.42578125" customWidth="true"/>
     <col min="2" max="2" width="6.42578125" customWidth="true"/>
     <col min="3" max="3" width="4.5703125" customWidth="true"/>
-    <col min="4" max="4" width="11.85546875" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="10.85546875" customWidth="true"/>
     <col min="6" max="6" width="15.5703125" customWidth="true"/>
     <col min="7" max="7" width="13.85546875" customWidth="true"/>
@@ -102,104 +109,95 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>64.98642105263157</v>
+        <v>90.096000000000004</v>
       </c>
       <c r="E2">
-        <v>1.4000000000000001</v>
+        <v>41.399999999999999</v>
       </c>
       <c r="F2">
-        <v>0.23259406699229054</v>
+        <v>37.128761035078973</v>
       </c>
       <c r="G2">
-        <v>0.18027756377318843</v>
+        <v>9.7114520541471823</v>
       </c>
       <c r="H2">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>111.10325000000003</v>
-      </c>
       <c r="E3">
-        <v>90.299999999999997</v>
-      </c>
-      <c r="F3">
-        <v>4.3823435487210229</v>
-      </c>
-      <c r="G3">
-        <v>2.8175669565445016</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>11.548999999999999</v>
+        <v>175.68299999999999</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>91.299999999999997</v>
       </c>
       <c r="F4">
-        <v>57.630086760302497</v>
+        <v>91.954806834661966</v>
       </c>
       <c r="G4">
-        <v>63.484027124939082</v>
+        <v>170.03329379859701</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -207,1033 +205,961 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5">
-        <v>78.755588235294113</v>
+        <v>6.8810000000000002</v>
       </c>
       <c r="E5">
-        <v>17.699999999999999</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="F5">
-        <v>0.23769728648011243</v>
+        <v>51.047280045071943</v>
       </c>
       <c r="G5">
-        <v>0.29410882339708405</v>
+        <v>85.130469280980705</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6">
-        <v>158.41733333333335</v>
+        <v>11.16</v>
       </c>
       <c r="E6">
-        <v>96.299999999999997</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>25.294149521183808</v>
+        <v>10.318216900220696</v>
       </c>
       <c r="G6">
-        <v>29.326112937107844</v>
+        <v>4.0748133699594078</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7">
-        <v>137.9616</v>
+        <v>97.930999999999997</v>
       </c>
       <c r="E7">
-        <v>98.799999999999997</v>
+        <v>47.199999999999996</v>
       </c>
       <c r="F7">
-        <v>6.033471416523839</v>
+        <v>94.694242054127741</v>
       </c>
       <c r="G7">
-        <v>0.838650043609658</v>
+        <v>109.30222976955902</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8">
-        <v>90.015000000000015</v>
-      </c>
       <c r="E8">
-        <v>47.299999999999997</v>
-      </c>
-      <c r="F8">
-        <v>0.18000000000000682</v>
-      </c>
-      <c r="G8">
-        <v>0.15297058540776146</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9">
-        <v>84.339769230769221</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="E9">
-        <v>35.899999999999999</v>
+        <v>0.20000000000000001</v>
       </c>
       <c r="F9">
-        <v>0.21023796041626552</v>
+        <v>140.12285952334827</v>
       </c>
       <c r="G9">
-        <v>0.42953463189825131</v>
+        <v>86.311076925270726</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10">
-        <v>91.295416666666668</v>
+        <v>137.61500000000001</v>
       </c>
       <c r="E10">
-        <v>50.299999999999997</v>
+        <v>78</v>
       </c>
       <c r="F10">
-        <v>0.40074526306424751</v>
+        <v>116.0132287998713</v>
       </c>
       <c r="G10">
-        <v>0.36548348711597267</v>
+        <v>145.93232334364626</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11">
-        <v>83.106933333333316</v>
-      </c>
       <c r="E11">
-        <v>19.800000000000001</v>
-      </c>
-      <c r="F11">
-        <v>5.1288518379467458</v>
-      </c>
-      <c r="G11">
-        <v>2.3845186600400483</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12">
-        <v>92.725818181818184</v>
+        <v>55.417999999999999</v>
       </c>
       <c r="E12">
-        <v>55.100000000000001</v>
+        <v>22.199999999999999</v>
       </c>
       <c r="F12">
-        <v>0.22360679774996625</v>
+        <v>19.765339081331224</v>
       </c>
       <c r="G12">
-        <v>0.14142135623729746</v>
+        <v>140.12285952334827</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13">
-        <v>93.414842105263148</v>
+        <v>123.45350000000001</v>
       </c>
       <c r="E13">
-        <v>57.899999999999999</v>
+        <v>67.800000000000011</v>
       </c>
       <c r="F13">
-        <v>0.24414828410147765</v>
+        <v>9.6495902476503908</v>
       </c>
       <c r="G13">
-        <v>0.26378242602975643</v>
+        <v>56.18600424397556</v>
       </c>
       <c r="H13">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
-      <c r="D14">
-        <v>103.98649999999999</v>
-      </c>
       <c r="E14">
-        <v>71.200000000000003</v>
-      </c>
-      <c r="F14">
-        <v>0.64850028153506734</v>
-      </c>
-      <c r="G14">
-        <v>0.2935787802382811</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15">
-        <v>103.45354545454546</v>
+        <v>175.68299999999999</v>
       </c>
       <c r="E15">
-        <v>76.700000000000003</v>
+        <v>92.100000000000009</v>
       </c>
       <c r="F15">
-        <v>19.237718159906585</v>
+        <v>91.954806834661966</v>
       </c>
       <c r="G15">
-        <v>3.1180121872757733</v>
+        <v>170.03329379859701</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
+      <c r="D16">
+        <v>129.899</v>
+      </c>
       <c r="E16">
-        <v>0</v>
+        <v>79.700000000000003</v>
+      </c>
+      <c r="F16">
+        <v>104.38592550722532</v>
+      </c>
+      <c r="G16">
+        <v>113.03847530818869</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
-      <c r="D17">
-        <v>75.236750000000015</v>
-      </c>
       <c r="E17">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="F17">
-        <v>0.72684930759327027</v>
-      </c>
-      <c r="G17">
-        <v>1.9867943545865514</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
-      <c r="D18">
-        <v>104.01624999999997</v>
-      </c>
       <c r="E18">
-        <v>78</v>
-      </c>
-      <c r="F18">
-        <v>2.6059346969162434</v>
-      </c>
-      <c r="G18">
-        <v>5.522987954616541</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19">
-        <v>98.300928571428571</v>
+        <v>59.017000000000003</v>
       </c>
       <c r="E19">
-        <v>68.799999999999997</v>
+        <v>25.600000000000001</v>
       </c>
       <c r="F19">
-        <v>0.822192191643772</v>
+        <v>17.545358474536812</v>
       </c>
       <c r="G19">
-        <v>0.39812058474789469</v>
+        <v>94.521746857535391</v>
       </c>
       <c r="H19">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20">
-        <v>132.23250000000002</v>
+        <v>105.55833333333334</v>
       </c>
       <c r="E20">
-        <v>90.5</v>
+        <v>54.700000000000003</v>
       </c>
       <c r="F20">
-        <v>12.904888417027404</v>
+        <v>99.181651528899238</v>
       </c>
       <c r="G20">
-        <v>2.9923516857848478</v>
+        <v>167.5571794940461</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
-      <c r="D21">
-        <v>106.56081818181816</v>
-      </c>
       <c r="E21">
-        <v>80.400000000000006</v>
-      </c>
-      <c r="F21">
-        <v>14.418391033676388</v>
-      </c>
-      <c r="G21">
-        <v>26.077624508378822</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22">
-        <v>138.94575</v>
+        <v>160.71600000000001</v>
       </c>
       <c r="E22">
-        <v>93.899999999999991</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="F22">
-        <v>16.7285459235279</v>
+        <v>56.882166801204015</v>
       </c>
       <c r="G22">
-        <v>1.1411542936410588</v>
+        <v>74.027022093286988</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23">
-        <v>100.31961538461539</v>
+        <v>133.87700000000001</v>
       </c>
       <c r="E23">
-        <v>74.700000000000003</v>
+        <v>61.899999999999999</v>
       </c>
       <c r="F23">
-        <v>1.4993935862455625</v>
+        <v>69.399934438009296</v>
       </c>
       <c r="G23">
-        <v>1.2487805924509683</v>
+        <v>113.03847530818869</v>
       </c>
       <c r="H23">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
-      <c r="D24">
-        <v>107.06207142857143</v>
-      </c>
       <c r="E24">
-        <v>90.299999999999997</v>
-      </c>
-      <c r="F24">
-        <v>0.2513128446873642</v>
-      </c>
-      <c r="G24">
-        <v>0.30448658457186051</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25">
-        <v>122.2285</v>
+        <v>100.31319999999999</v>
       </c>
       <c r="E25">
-        <v>82.5</v>
+        <v>48.600000000000001</v>
       </c>
       <c r="F25">
-        <v>0.61140651046948358</v>
+        <v>128.59243251451463</v>
       </c>
       <c r="G25">
-        <v>0.26244358320529726</v>
+        <v>49.677082241210584</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26">
-        <v>91.142322580645143</v>
+        <v>53.767375000000001</v>
       </c>
       <c r="E26">
-        <v>48.899999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="F26">
-        <v>1.283170539621783</v>
+        <v>38.663327628133032</v>
       </c>
       <c r="G26">
-        <v>1.2687237124557202</v>
+        <v>77.772241999443864</v>
       </c>
       <c r="H26">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27">
-        <v>127.68266666666666</v>
+        <v>72.531000000000006</v>
       </c>
       <c r="E27">
-        <v>86</v>
+        <v>24.399999999999999</v>
       </c>
       <c r="F27">
-        <v>3.4214616759507797</v>
+        <v>25.393941023757215</v>
       </c>
       <c r="G27">
-        <v>11.473818021914026</v>
+        <v>37.215074878276219</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28">
-        <v>108.99081818181817</v>
+        <v>90.637</v>
       </c>
       <c r="E28">
-        <v>86.900000000000006</v>
+        <v>36.100000000000001</v>
       </c>
       <c r="F28">
-        <v>0.59328101958048085</v>
+        <v>99.886780406618456</v>
       </c>
       <c r="G28">
-        <v>7.0983928988471146</v>
+        <v>71.427736909410712</v>
       </c>
       <c r="H28">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
       <c r="D29">
-        <v>92.878888888888895</v>
+        <v>177.00149999999999</v>
       </c>
       <c r="E29">
-        <v>53.700000000000003</v>
+        <v>99.099999999999994</v>
       </c>
       <c r="F29">
-        <v>0.34438350715446819</v>
+        <v>91.738067962271657</v>
       </c>
       <c r="G29">
-        <v>0.37363083384539969</v>
+        <v>66.964576091039774</v>
       </c>
       <c r="H29">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
       <c r="D30">
-        <v>93.622648148148173</v>
+        <v>109.9855</v>
       </c>
       <c r="E30">
-        <v>53</v>
+        <v>56.100000000000009</v>
       </c>
       <c r="F30">
-        <v>0.23926458902798059</v>
+        <v>137.77896394470508</v>
       </c>
       <c r="G30">
-        <v>0.34113128743069565</v>
+        <v>62.004425461523809</v>
       </c>
       <c r="H30">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
-      <c r="D31">
-        <v>67.86271428571429</v>
-      </c>
       <c r="E31">
-        <v>15.6</v>
-      </c>
-      <c r="F31">
-        <v>0.43185645763379238</v>
-      </c>
-      <c r="G31">
-        <v>0.32140317359975723</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
       <c r="D32">
-        <v>109.71138461538463</v>
+        <v>63.204666666666675</v>
       </c>
       <c r="E32">
-        <v>88.599999999999994</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F32">
-        <v>8.8313305905736126</v>
+        <v>74.299825389387678</v>
       </c>
       <c r="G32">
-        <v>1.3439121995130532</v>
+        <v>112.67787694346991</v>
       </c>
       <c r="H32">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
       <c r="D33">
-        <v>111.37963636363635</v>
+        <v>123.43400000000001</v>
       </c>
       <c r="E33">
-        <v>85.900000000000006</v>
+        <v>78.600000000000009</v>
       </c>
       <c r="F33">
-        <v>9.038611619048579</v>
+        <v>98.059241284671771</v>
       </c>
       <c r="G33">
-        <v>0.58600341295936298</v>
+        <v>95.91104432009007</v>
       </c>
       <c r="H33">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
       <c r="D34">
-        <v>111.062</v>
+        <v>38.756999999999998</v>
       </c>
       <c r="E34">
-        <v>88.099999999999994</v>
+        <v>3.5000000000000004</v>
       </c>
       <c r="F34">
-        <v>0.16000000000002501</v>
+        <v>50.514820409460029</v>
       </c>
       <c r="G34">
-        <v>0.21400934559033685</v>
+        <v>63.282345879399891</v>
       </c>
       <c r="H34">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
-      <c r="D35">
-        <v>98.027341463414643</v>
-      </c>
       <c r="E35">
-        <v>73.200000000000003</v>
-      </c>
-      <c r="F35">
-        <v>0.39217343102255436</v>
-      </c>
-      <c r="G35">
-        <v>0.34205262752977184</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
       <c r="D36">
-        <v>71.129600000000011</v>
+        <v>129.97300000000001</v>
       </c>
       <c r="E36">
-        <v>22.100000000000001</v>
+        <v>57.899999999999999</v>
       </c>
       <c r="F36">
-        <v>4.8225511920558937</v>
+        <v>93.544825618523731</v>
       </c>
       <c r="G36">
-        <v>14.99681632880789</v>
+        <v>150.23297773791205</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
       <c r="D37">
-        <v>97.762692307692291</v>
+        <v>95.784333333333336</v>
       </c>
       <c r="E37">
-        <v>68.5</v>
+        <v>44.700000000000003</v>
       </c>
       <c r="F37">
-        <v>1.2952991932368882</v>
+        <v>32.6407076516426</v>
       </c>
       <c r="G37">
-        <v>0.55461698495448586</v>
+        <v>100.67907478716717</v>
       </c>
       <c r="H37">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38">
         <v>37</v>
       </c>
       <c r="D38">
-        <v>119.33840000000001</v>
+        <v>180</v>
       </c>
       <c r="E38">
-        <v>84.700000000000003</v>
+        <v>97.700000000000003</v>
       </c>
       <c r="F38">
-        <v>0.29410882339708405</v>
+        <v>3.7820761494184953</v>
       </c>
       <c r="G38">
-        <v>0.34539832078340282</v>
+        <v>68.110669501921663</v>
       </c>
       <c r="H38">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
       <c r="D39">
-        <v>101.55399999999999</v>
+        <v>105.70650000000001</v>
       </c>
       <c r="E39">
-        <v>75.200000000000003</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="F39">
-        <v>0.22360679774996625</v>
+        <v>108.56798406119472</v>
       </c>
       <c r="G39">
-        <v>0.28635642126550087</v>
+        <v>106.37188852194774</v>
       </c>
       <c r="H39">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40">
         <v>39</v>
       </c>
       <c r="D40">
-        <v>88.305000000000007</v>
+        <v>123.34833333333336</v>
       </c>
       <c r="E40">
-        <v>29.799999999999997</v>
+        <v>78</v>
       </c>
       <c r="F40">
-        <v>0.26076809620809549</v>
+        <v>28.885434793512424</v>
       </c>
       <c r="G40">
-        <v>0.22561028345359868</v>
+        <v>51.814919197228079</v>
       </c>
       <c r="H40">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
       <c r="D41">
-        <v>107.44408333333332</v>
+        <v>86.620857142857147</v>
       </c>
       <c r="E41">
-        <v>80.400000000000006</v>
+        <v>23.200000000000003</v>
       </c>
       <c r="F41">
-        <v>2.2181781710492787</v>
+        <v>49.540287645511334</v>
       </c>
       <c r="G41">
-        <v>1.114778228544715</v>
+        <v>72.665053498913849</v>
       </c>
       <c r="H41">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42">
         <v>41</v>
       </c>
       <c r="D42">
-        <v>83.182111111111098</v>
+        <v>77.653999999999996</v>
       </c>
       <c r="E42">
-        <v>35.600000000000001</v>
+        <v>30.300000000000001</v>
       </c>
       <c r="F42">
-        <v>14.801094554119986</v>
+        <v>105.75490532358297</v>
       </c>
       <c r="G42">
-        <v>12.27588286030783</v>
+        <v>64.752412310276142</v>
       </c>
       <c r="H42">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
       <c r="D43">
-        <v>112.91974999999999</v>
+        <v>14.949</v>
       </c>
       <c r="E43">
-        <v>84.399999999999991</v>
+        <v>7.5</v>
       </c>
       <c r="F43">
-        <v>0.28899592131672064</v>
+        <v>47.289080145420449</v>
       </c>
       <c r="G43">
-        <v>0.31574121260969001</v>
+        <v>28.323003018747855</v>
       </c>
       <c r="H43">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44">
         <v>43</v>
       </c>
       <c r="D44">
-        <v>125.94500000000002</v>
+        <v>83.793000000000006</v>
       </c>
       <c r="E44">
-        <v>94.099999999999994</v>
+        <v>22.5</v>
       </c>
       <c r="F44">
-        <v>7.1772209106311022</v>
+        <v>62.662961084078461</v>
       </c>
       <c r="G44">
-        <v>0.4494441010848983</v>
+        <v>173.5548139325706</v>
       </c>
       <c r="H44">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
